--- a/FME_fmw_files/LOOKUP_TABLES/SpatialReferenceAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/SpatialReferenceAttributeMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>original_value</t>
   </si>
@@ -50,22 +50,16 @@
     <t>EPSG: 3005</t>
   </si>
   <si>
-    <t>EPSG</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>EPSG: 4269</t>
   </si>
   <si>
     <t>reference_code_value</t>
   </si>
   <si>
-    <t>reference_codespace_value</t>
-  </si>
-  <si>
-    <t>reference_version_value</t>
+    <t>EPSG:4269</t>
+  </si>
+  <si>
+    <t>EPSG:3400</t>
   </si>
 </sst>
 </file>
@@ -383,158 +377,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3400</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3401</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4326</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
